--- a/homework/test.xlsx
+++ b/homework/test.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chen-fr\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\python\training\homework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B1CE5AB-BF14-43AF-B93B-9E9625ED5BB8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D98DD327-062D-4011-9E86-0F48A5DC7D0D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="29">
   <si>
     <t>c1</t>
   </si>
@@ -79,6 +79,39 @@
   </si>
   <si>
     <t>c18</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
   </si>
 </sst>
 </file>
@@ -137,6 +170,26 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{39075DDA-7522-4F91-9A4D-A3E413BDC192}" name="表1" displayName="表1" ref="A1:K9" totalsRowShown="0">
+  <autoFilter ref="A1:K9" xr:uid="{E53848D5-3E57-43DD-AED1-A22EB6480D86}"/>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{79CA9998-BA2C-4293-950B-17F1229B969D}" name="1"/>
+    <tableColumn id="2" xr3:uid="{DBFF5683-8E2C-459A-B626-556DD907EDC4}" name="2"/>
+    <tableColumn id="3" xr3:uid="{89C50909-94ED-4F67-8D71-293016B47369}" name="3"/>
+    <tableColumn id="4" xr3:uid="{C6D9C010-D4FA-4E0E-BEA2-89EB4C6246D7}" name="4"/>
+    <tableColumn id="5" xr3:uid="{78582283-DC83-4859-8587-D8D11FBE4545}" name="5"/>
+    <tableColumn id="6" xr3:uid="{2242183C-DE1B-42BE-85BC-CE3F421208D9}" name="6"/>
+    <tableColumn id="7" xr3:uid="{68ACAF9A-13AE-4B39-AEEB-AC19120F87EC}" name="7"/>
+    <tableColumn id="8" xr3:uid="{594C5E8F-8BD9-49D3-93DE-377D928D8C7C}" name="8"/>
+    <tableColumn id="9" xr3:uid="{7E422538-16D1-4717-8403-897645E608C8}" name="9"/>
+    <tableColumn id="10" xr3:uid="{756F88A8-29F6-4FA3-B832-848A7F0ED7A7}" name="10"/>
+    <tableColumn id="11" xr3:uid="{946A613B-CD16-494A-8897-3FEF48C5FF36}" name="11"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -405,44 +458,44 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>1</v>
-      </c>
-      <c r="B1">
-        <v>2</v>
-      </c>
-      <c r="C1">
-        <v>3</v>
-      </c>
-      <c r="D1">
-        <v>4</v>
-      </c>
-      <c r="E1">
-        <v>5</v>
-      </c>
-      <c r="F1">
-        <v>6</v>
-      </c>
-      <c r="G1">
-        <v>7</v>
-      </c>
-      <c r="H1">
-        <v>8</v>
-      </c>
-      <c r="I1">
-        <v>9</v>
-      </c>
-      <c r="J1">
-        <v>10</v>
-      </c>
-      <c r="K1">
-        <v>11</v>
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -728,5 +781,8 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>